--- a/tests/resources_generator/tests/resources/logical.xlsx
+++ b/tests/resources_generator/tests/resources/logical.xlsx
@@ -439,87 +439,69 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3">
-        <f>AND(TRUE, TRUE)</f>
-        <v/>
-      </c>
-      <c r="B3">
-        <f>OR(TRUE, TRUE)</f>
-        <v/>
-      </c>
-      <c r="C3">
-        <f>TRUE()</f>
-        <v/>
-      </c>
-      <c r="D3">
-        <f>AND(OR(A1, B1), NOT(E1&gt;0))</f>
-        <v/>
-      </c>
-      <c r="E3">
-        <f>AND()</f>
-        <v/>
+      <c r="A3" t="b">
+        <v>1</v>
+      </c>
+      <c r="B3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4">
-        <f>AND(TRUE, FALSE)</f>
-        <v/>
-      </c>
-      <c r="B4">
-        <f>OR(TRUE, FALSE)</f>
-        <v/>
-      </c>
-      <c r="C4">
-        <f>FALSE()</f>
-        <v/>
-      </c>
-      <c r="D4">
-        <f>OR(AND(A1, B1), AND(C1&gt;0, D1&gt;0))</f>
-        <v/>
-      </c>
-      <c r="E4">
-        <f>OR()</f>
-        <v/>
+      <c r="A4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5">
-        <f>AND(FALSE, FALSE)</f>
-        <v/>
-      </c>
-      <c r="B5">
-        <f>OR(FALSE, FALSE)</f>
-        <v/>
+      <c r="A5" t="b">
+        <v>0</v>
+      </c>
+      <c r="B5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6">
-        <f>AND(A1, B1)</f>
-        <v/>
-      </c>
-      <c r="B6">
-        <f>OR(A1, B1)</f>
-        <v/>
+      <c r="A6" t="b">
+        <v>0</v>
+      </c>
+      <c r="B6" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7">
-        <f>AND(C1&gt;0, D1&gt;5)</f>
-        <v/>
-      </c>
-      <c r="B7">
-        <f>OR(C1&gt;10, D1&gt;5)</f>
-        <v/>
+      <c r="A7" t="b">
+        <v>1</v>
+      </c>
+      <c r="B7" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8">
-        <f>AND(C1&gt;0, D1&gt;5, E1=0)</f>
-        <v/>
-      </c>
-      <c r="B8">
-        <f>OR(C1&gt;10, D1&gt;15, E1&gt;0)</f>
-        <v/>
+      <c r="A8" t="b">
+        <v>1</v>
+      </c>
+      <c r="B8" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
